--- a/biology/Microbiologie/Dileptidae/Dileptidae.xlsx
+++ b/biology/Microbiologie/Dileptidae/Dileptidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dileptidae sont une famille de Ciliés de la classe des Litostomatea et de l’ordre des Dileptida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Dileptus, dérivé du chiffre grec di (deux) et de l'adjectif grec leptos, « mince, élancé », en référence aux deux extrémités rétrécies du corps de ce cilié.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (22 juin 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (22 juin 2023) :
 Apodileptus
 Dileptus Dujardin, 1841
 Monilicaryon Jankowski, 1967
@@ -579,10 +595,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Dileptidae Jankowski, 1980[2].
-La position taxonomique du genre type Dileptus est encore incertaine, en effet GBIF       (2 juillet 2023)[3] classe aussi ce genre dans la famille des Tracheliidae.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Dileptidae Jankowski, 1980.
+La position taxonomique du genre type Dileptus est encore incertaine, en effet GBIF       (2 juillet 2023) classe aussi ce genre dans la famille des Tracheliidae.
 </t>
         </is>
       </c>
